--- a/plots/basic_stats/two_var_stats/allmus_subject_matter_simpl_vs_region_name.xlsx
+++ b/plots/basic_stats/two_var_stats/allmus_subject_matter_simpl_vs_region_name.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,228 +432,228 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>archaeology</t>
+          <t>airforce</t>
         </is>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="M2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N2">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>arts</t>
+          <t>art</t>
         </is>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="I3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="M3">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>belief_and_identity</t>
+          <t>aviation</t>
         </is>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L4">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N4">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>buildings</t>
+          <t>bicycles</t>
         </is>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>communications</t>
+          <t>boats_and_ships</t>
         </is>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -662,29 +662,29 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>food_and_drink</t>
+          <t>bunker</t>
         </is>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -693,68 +693,68 @@
         <v>2</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>industry_and_manufacture</t>
+          <t>buses_and_trams</t>
         </is>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J8">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="K8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>leisure_and_sport</t>
+          <t>bygones</t>
         </is>
       </c>
       <c r="B9">
@@ -764,365 +764,365 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>local_histories</t>
+          <t>canals</t>
         </is>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>183</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>131</v>
+        <v>2</v>
       </c>
       <c r="M10">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="N10">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>medicine_and_health</t>
+          <t>cars_and_motorbikes</t>
         </is>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H11">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>mixed</t>
+          <t>castles_and_forts</t>
         </is>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>7</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>17</v>
+      </c>
+      <c r="L12">
         <v>6</v>
       </c>
-      <c r="D12">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>15</v>
-      </c>
-      <c r="G12">
-        <v>13</v>
-      </c>
-      <c r="H12">
-        <v>9</v>
-      </c>
-      <c r="I12">
-        <v>8</v>
-      </c>
-      <c r="J12">
-        <v>26</v>
-      </c>
-      <c r="K12">
-        <v>31</v>
-      </c>
-      <c r="L12">
-        <v>21</v>
-      </c>
       <c r="M12">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="N12">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>natural_world</t>
+          <t>ceramics</t>
         </is>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N13">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>church_treasuries</t>
         </is>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K14">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>personality</t>
+          <t>civic</t>
         </is>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>rural_industry</t>
+          <t>clocks_and_watches</t>
         </is>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>science_and_technology</t>
+          <t>computing_and_gaming</t>
         </is>
       </c>
       <c r="B17">
@@ -1132,218 +1132,218 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>sea_and_seafaring</t>
+          <t>costume_and_textiles</t>
         </is>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K18">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N18">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>services</t>
+          <t>crafts</t>
         </is>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>transport</t>
+          <t>cricket</t>
         </is>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="M20">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>utilities</t>
+          <t>design</t>
         </is>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1352,47 +1352,2899 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>war_and_conflict</t>
+          <t>dinosaurs</t>
         </is>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>encyclopaedic</t>
+        </is>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>7</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>18</v>
+      </c>
+      <c r="K23">
+        <v>19</v>
+      </c>
+      <c r="L23">
+        <v>13</v>
+      </c>
+      <c r="M23">
+        <v>8</v>
+      </c>
+      <c r="N23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ethnic_group</t>
+        </is>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>9</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>event_or_site</t>
+        </is>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>6</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>explorer</t>
+        </is>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>fairgrounds_and_amusements</t>
+        </is>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>farming</t>
+        </is>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>17</v>
+      </c>
+      <c r="L28">
+        <v>12</v>
+      </c>
+      <c r="M28">
+        <v>5</v>
+      </c>
+      <c r="N28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>film_cinema_and_tv</t>
+        </is>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>4</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>fine_and_decorative_arts</t>
+        </is>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>31</v>
+      </c>
+      <c r="E30">
+        <v>12</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>12</v>
+      </c>
+      <c r="H30">
+        <v>33</v>
+      </c>
+      <c r="I30">
+        <v>13</v>
+      </c>
+      <c r="J30">
+        <v>23</v>
+      </c>
+      <c r="K30">
         <v>14</v>
       </c>
-      <c r="D22">
-        <v>33</v>
-      </c>
-      <c r="E22">
+      <c r="L30">
+        <v>14</v>
+      </c>
+      <c r="M30">
+        <v>13</v>
+      </c>
+      <c r="N30">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>fire</t>
+        </is>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>fishing</t>
+        </is>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>forges</t>
+        </is>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>fossils</t>
+        </is>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>freemasons</t>
+        </is>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>2</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>gas_and_electricity</t>
+        </is>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>geology</t>
+        </is>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>greek_and_egyptian</t>
+        </is>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>herbaria_and_gardening</t>
+        </is>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>3</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>hospital</t>
+        </is>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>7</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>3</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>houses</t>
+        </is>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>12</v>
+      </c>
+      <c r="D42">
+        <v>72</v>
+      </c>
+      <c r="E42">
+        <v>30</v>
+      </c>
+      <c r="F42">
+        <v>34</v>
+      </c>
+      <c r="G42">
+        <v>47</v>
+      </c>
+      <c r="H42">
+        <v>29</v>
+      </c>
+      <c r="I42">
+        <v>6</v>
+      </c>
+      <c r="J42">
+        <v>45</v>
+      </c>
+      <c r="K42">
+        <v>67</v>
+      </c>
+      <c r="L42">
+        <v>93</v>
+      </c>
+      <c r="M42">
+        <v>44</v>
+      </c>
+      <c r="N42">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>industrial_life</t>
+        </is>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>4</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>lighthouses</t>
+        </is>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>literary</t>
+        </is>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
         <v>21</v>
       </c>
-      <c r="F22">
-        <v>30</v>
-      </c>
-      <c r="G22">
-        <v>50</v>
-      </c>
-      <c r="H22">
-        <v>23</v>
-      </c>
-      <c r="I22">
+      <c r="E45">
+        <v>6</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45">
+        <v>8</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>9</v>
+      </c>
+      <c r="K45">
+        <v>9</v>
+      </c>
+      <c r="L45">
+        <v>7</v>
+      </c>
+      <c r="M45">
+        <v>9</v>
+      </c>
+      <c r="N45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>literature</t>
+        </is>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>3</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>medieval</t>
+        </is>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>metals</t>
+        </is>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <v>3</v>
+      </c>
+      <c r="N48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>military</t>
+        </is>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>10</v>
+      </c>
+      <c r="H49">
+        <v>6</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <v>7</v>
+      </c>
+      <c r="L49">
+        <v>5</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>mining_and_quarrying</t>
+        </is>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>10</v>
+      </c>
+      <c r="F50">
+        <v>6</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>6</v>
+      </c>
+      <c r="J50">
+        <v>8</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>13</v>
+      </c>
+      <c r="M50">
+        <v>2</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
         <v>16</v>
       </c>
-      <c r="J22">
-        <v>24</v>
-      </c>
-      <c r="K22">
-        <v>79</v>
-      </c>
-      <c r="L22">
-        <v>28</v>
-      </c>
-      <c r="M22">
+      <c r="E51">
+        <v>11</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="G51">
         <v>18</v>
       </c>
-      <c r="N22">
-        <v>24</v>
+      <c r="H51">
+        <v>7</v>
+      </c>
+      <c r="I51">
+        <v>8</v>
+      </c>
+      <c r="J51">
+        <v>11</v>
+      </c>
+      <c r="K51">
+        <v>20</v>
+      </c>
+      <c r="L51">
+        <v>18</v>
+      </c>
+      <c r="M51">
+        <v>4</v>
+      </c>
+      <c r="N51">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>music</t>
+        </is>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>6</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <v>4</v>
+      </c>
+      <c r="M52">
+        <v>2</v>
+      </c>
+      <c r="N52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>navy</t>
+        </is>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>5</v>
+      </c>
+      <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>14</v>
+      </c>
+      <c r="D54">
+        <v>51</v>
+      </c>
+      <c r="E54">
+        <v>12</v>
+      </c>
+      <c r="F54">
+        <v>21</v>
+      </c>
+      <c r="G54">
+        <v>35</v>
+      </c>
+      <c r="H54">
+        <v>35</v>
+      </c>
+      <c r="I54">
+        <v>11</v>
+      </c>
+      <c r="J54">
+        <v>22</v>
+      </c>
+      <c r="K54">
+        <v>47</v>
+      </c>
+      <c r="L54">
+        <v>35</v>
+      </c>
+      <c r="M54">
+        <v>34</v>
+      </c>
+      <c r="N54">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>palace</t>
+        </is>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>penal</t>
+        </is>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>3</v>
+      </c>
+      <c r="L56">
+        <v>3</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>photography</t>
+        </is>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>2</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>police</t>
+        </is>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>6</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>4</v>
+      </c>
+      <c r="K58">
+        <v>4</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>3</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>political</t>
+        </is>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>3</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>potteries</t>
+        </is>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>2</v>
+      </c>
+      <c r="M61">
+        <v>5</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>prehistory</t>
+        </is>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>9</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>3</v>
+      </c>
+      <c r="L62">
+        <v>8</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>print</t>
+        </is>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>professional_association</t>
+        </is>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>9</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>regiment</t>
+        </is>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66">
+        <v>11</v>
+      </c>
+      <c r="E66">
+        <v>7</v>
+      </c>
+      <c r="F66">
+        <v>10</v>
+      </c>
+      <c r="G66">
+        <v>9</v>
+      </c>
+      <c r="H66">
+        <v>11</v>
+      </c>
+      <c r="I66">
+        <v>5</v>
+      </c>
+      <c r="J66">
+        <v>10</v>
+      </c>
+      <c r="K66">
+        <v>31</v>
+      </c>
+      <c r="L66">
+        <v>11</v>
+      </c>
+      <c r="M66">
+        <v>10</v>
+      </c>
+      <c r="N66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>religion</t>
+        </is>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>7</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+      <c r="H67">
+        <v>7</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>4</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>religious</t>
+        </is>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+      <c r="M68">
+        <v>2</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>religious_buildings</t>
+        </is>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>5</v>
+      </c>
+      <c r="E69">
+        <v>4</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>4</v>
+      </c>
+      <c r="H69">
+        <v>3</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69">
+        <v>2</v>
+      </c>
+      <c r="K69">
+        <v>3</v>
+      </c>
+      <c r="L69">
+        <v>6</v>
+      </c>
+      <c r="M69">
+        <v>2</v>
+      </c>
+      <c r="N69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>rnli</t>
+        </is>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>roman</t>
+        </is>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>4</v>
+      </c>
+      <c r="H71">
+        <v>2</v>
+      </c>
+      <c r="I71">
+        <v>8</v>
+      </c>
+      <c r="J71">
+        <v>5</v>
+      </c>
+      <c r="K71">
+        <v>9</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>4</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>rugby_and_football</t>
+        </is>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>5</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>4</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>3</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>rural_life</t>
+        </is>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>6</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>5</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>10</v>
+      </c>
+      <c r="L73">
+        <v>10</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>school</t>
+        </is>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>scientific</t>
+        </is>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>3</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>3</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>shops</t>
+        </is>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>steam_and_engines</t>
+        </is>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>2</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>4</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>textiles</t>
+        </is>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>8</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="F78">
+        <v>7</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>16</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>5</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>toys_and_models</t>
+        </is>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>9</v>
+      </c>
+      <c r="E79">
+        <v>11</v>
+      </c>
+      <c r="F79">
+        <v>4</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>3</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>3</v>
+      </c>
+      <c r="K79">
+        <v>11</v>
+      </c>
+      <c r="L79">
+        <v>6</v>
+      </c>
+      <c r="M79">
+        <v>5</v>
+      </c>
+      <c r="N79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>trains_and_railways</t>
+        </is>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="D80">
+        <v>10</v>
+      </c>
+      <c r="E80">
+        <v>12</v>
+      </c>
+      <c r="F80">
+        <v>18</v>
+      </c>
+      <c r="G80">
+        <v>17</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>11</v>
+      </c>
+      <c r="J80">
+        <v>8</v>
+      </c>
+      <c r="K80">
+        <v>13</v>
+      </c>
+      <c r="L80">
+        <v>26</v>
+      </c>
+      <c r="M80">
+        <v>13</v>
+      </c>
+      <c r="N80">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>water_and_waste</t>
+        </is>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>3</v>
+      </c>
+      <c r="G81">
+        <v>4</v>
+      </c>
+      <c r="H81">
+        <v>5</v>
+      </c>
+      <c r="I81">
+        <v>2</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>5</v>
+      </c>
+      <c r="L81">
+        <v>5</v>
+      </c>
+      <c r="M81">
+        <v>5</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>watermills</t>
+        </is>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>5</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>2</v>
+      </c>
+      <c r="K82">
+        <v>8</v>
+      </c>
+      <c r="L82">
+        <v>4</v>
+      </c>
+      <c r="M82">
+        <v>2</v>
+      </c>
+      <c r="N82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>windmills</t>
+        </is>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>6</v>
+      </c>
+      <c r="G83">
+        <v>3</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>6</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>zoology</t>
+        </is>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>2</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
